--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rpt_KHTH_DeXuat_Dieu_Chinh.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rpt_KHTH_DeXuat_Dieu_Chinh.xlsx
@@ -17,6 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="__Items__">KHTH!$14:$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">KHTH!$A$1:$U$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">KHTH!$6:$13</definedName>
     <definedName name="Z_FA42EA70_C459_4080_AD27_45492E92C8F8_.wvu.PrintTitles" localSheetId="0" hidden="1">KHTH!$14:$14</definedName>
     <definedName name="Z_FA42EA70_C459_4080_AD27_45492E92C8F8_.wvu.Rows" localSheetId="0" hidden="1">KHTH!#REF!</definedName>
@@ -906,89 +907,89 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1339,8 +1340,8 @@
   </sheetPr>
   <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView showZeros="0" tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection sqref="A1:U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1373,106 +1374,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="53" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:29" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="54" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
     </row>
     <row r="4" spans="1:29" ht="19.5" customHeight="1">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="2"/>
@@ -1491,180 +1492,180 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="72" t="s">
+      <c r="Q5" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
     </row>
     <row r="6" spans="1:29" s="7" customFormat="1" ht="42" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="57" t="s">
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="69" t="s">
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="70" t="s">
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="47" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:29" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="69"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="55"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:29" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="69"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="55"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="45"/>
     </row>
     <row r="9" spans="1:29" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="69"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="69" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="55" t="s">
+      <c r="E9" s="51"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="66" t="s">
+      <c r="I9" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="69" t="s">
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="66" t="s">
+      <c r="R9" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="S9" s="67"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="55"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="45"/>
     </row>
     <row r="10" spans="1:29" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69" t="s">
+      <c r="A10" s="49"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="69" t="s">
+      <c r="F10" s="52"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="70" t="s">
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69" t="s">
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="S10" s="69" t="s">
+      <c r="S10" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="T10" s="69"/>
-      <c r="U10" s="55"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="45"/>
     </row>
     <row r="11" spans="1:29" s="8" customFormat="1" ht="76.5" customHeight="1">
-      <c r="A11" s="69"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="19" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="26" t="s">
         <v>7</v>
       </c>
@@ -1686,16 +1687,16 @@
       <c r="O11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
       <c r="S11" s="26" t="s">
         <v>42</v>
       </c>
       <c r="T11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="U11" s="56"/>
+      <c r="U11" s="46"/>
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
@@ -1935,62 +1936,62 @@
       <c r="S16" s="41"/>
     </row>
     <row r="17" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46" t="s">
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46" t="s">
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
     </row>
     <row r="18" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46" t="s">
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46" t="s">
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" customHeight="1">
       <c r="A19" s="44"/>
@@ -2016,33 +2017,33 @@
       <c r="U19" s="41"/>
     </row>
     <row r="20" spans="1:21" ht="16.5">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46" t="s">
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46" t="s">
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" customHeight="1">
       <c r="A21" s="41"/>
@@ -2151,56 +2152,56 @@
     </row>
     <row r="26" spans="1:21" ht="16.5">
       <c r="A26" s="43"/>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
       <c r="H26" s="42"/>
       <c r="I26" s="42"/>
       <c r="J26" s="42"/>
       <c r="K26" s="42"/>
       <c r="L26" s="41"/>
-      <c r="M26" s="46" t="s">
+      <c r="M26" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
       <c r="U26" s="41"/>
     </row>
     <row r="27" spans="1:21" ht="16.5">
       <c r="A27" s="43"/>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
       <c r="J27" s="40"/>
       <c r="K27" s="40"/>
       <c r="L27" s="41"/>
-      <c r="M27" s="46" t="s">
+      <c r="M27" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
       <c r="U27" s="41"/>
     </row>
     <row r="28" spans="1:21" ht="16.5">
@@ -2226,29 +2227,29 @@
     </row>
     <row r="29" spans="1:21" ht="16.5">
       <c r="A29" s="43"/>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
       <c r="J29" s="40"/>
       <c r="K29" s="40"/>
       <c r="L29" s="41"/>
-      <c r="M29" s="45" t="s">
+      <c r="M29" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
       <c r="U29" s="44"/>
     </row>
     <row r="30" spans="1:21" ht="16.5">
@@ -2457,6 +2458,34 @@
   </sheetData>
   <dataConsolidate topLabels="1"/>
   <mergeCells count="44">
+    <mergeCell ref="G6:P8"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="M20:U20"/>
+    <mergeCell ref="M18:U18"/>
+    <mergeCell ref="M29:T29"/>
+    <mergeCell ref="M27:T27"/>
+    <mergeCell ref="M26:T26"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="M17:U17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="H9:H11"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="A4:U4"/>
@@ -2473,34 +2502,6 @@
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="M17:U17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="E3:Q3"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="G6:P8"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="M20:U20"/>
-    <mergeCell ref="M18:U18"/>
-    <mergeCell ref="M29:T29"/>
-    <mergeCell ref="M27:T27"/>
-    <mergeCell ref="M26:T26"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rpt_KHTH_DeXuat_Dieu_Chinh.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/KeHoachTrungHan/rpt_KHTH_DeXuat_Dieu_Chinh.xlsx
@@ -121,18 +121,9 @@
     <t>AltFormat</t>
   </si>
   <si>
-    <t>&lt;#Items.STT&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
     <t>&lt;#if(&lt;#Items.IsHangCha&gt;=true;&lt;#format cell(Black)&gt;;)&gt;</t>
   </si>
   <si>
-    <t>&lt;#Items.STenDuAn&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.SGhiChu&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
     <t>Số TT</t>
   </si>
   <si>
@@ -244,117 +235,12 @@
     <t>(21)</t>
   </si>
   <si>
-    <t>&lt;#Items.STrangThaiThucHien&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
     <t>Đơn vị tính: &lt;#DonViTinh&gt;</t>
   </si>
   <si>
     <t>TỔNG CỘNG</t>
   </si>
   <si>
-    <t>&lt;#FHanMucDauTuDuocDuyetSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FTongSoDuocDuyetSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FVonBoTriTuNamDenNamDuocDuyetSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FVonBoTriSauNamDuocDuyetSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FHanMucDauTuDeXuatSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FTongSoDeXuatSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FTongCongDeXuatSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FGiaTriNamThuNhatDeXuatSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FGiaTriNamThuHaiDeXuatSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FGiaTriNamThuBaDeXuatSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FGiaTriNamThuTuDeXuatSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FGiaTriNamThuNamDeXuatSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FGiaTriSauNamDeXuatSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FHanMucDauTuChenhLechSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FTongSoChenhLechSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FVonBoTriTuNamDenNamChenhLechSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FVonBoTriSauNamChenhLechSum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FHanMucDauTuDuocDuyet&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FTongSoDuocDuyet&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FVonBoTriTuNamDenNamDuocDuyet&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FVonBoTriSauNamDuocDuyet&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FHanMucDauTuDeXuat&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FTongSoDeXuat&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FTongCongDeXuat&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FGiaTriNamThuNhatDeXuat&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FGiaTriNamThuHaiDeXuat&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FGiaTriNamThuBaDeXuat&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FGiaTriNamThuTuDeXuat&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FGiaTriNamThuNamDeXuat&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FGiaTriSauNamDeXuat&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FHanMucDauTuChenhLech&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FTongSoChenhLech&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FVonBoTriTuNamDenNamChenhLech&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Items.FVonBoTriSauNamChenhLech&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
     <t>&lt;#ThuaLenh1&gt;</t>
   </si>
   <si>
@@ -398,6 +284,120 @@
   </si>
   <si>
     <t>&lt;#Ten5&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FHanMucDauTuDuocDuyetSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FTongSoDuocDuyetSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FVonBoTriTuNamDenNamDuocDuyetSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FVonBoTriSauNamDuocDuyetSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FHanMucDauTuDeXuatSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FTongSoDeXuatSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FTongCongDeXuatSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FGiaTriNamThuNhatDeXuatSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FGiaTriNamThuHaiDeXuatSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FGiaTriNamThuBaDeXuatSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FGiaTriNamThuTuDeXuatSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FGiaTriNamThuNamDeXuatSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FGiaTriSauNamDeXuatSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FHanMucDauTuChenhLechSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FTongSoChenhLechSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FVonBoTriTuNamDenNamChenhLechSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#FVonBoTriSauNamChenhLechSum&gt;)&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#Items.STT&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FHanMucDauTuDuocDuyet&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FTongSoDuocDuyet&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FVonBoTriTuNamDenNamDuocDuyet&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FVonBoTriSauNamDuocDuyet&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FHanMucDauTuDeXuat&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FTongSoDeXuat&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FTongCongDeXuat&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FGiaTriNamThuHaiDeXuat&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FGiaTriNamThuBaDeXuat&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FGiaTriNamThuTuDeXuat&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FGiaTriNamThuNamDeXuat&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FGiaTriSauNamDeXuat&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FHanMucDauTuChenhLech&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FTongSoChenhLech&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FVonBoTriTuNamDenNamChenhLech&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FVonBoTriSauNamChenhLech&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t>&lt;#Items.SGhiChu&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#Items.STrangThaiThucHien&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;#FormatNumber(&lt;#Items.FGiaTriNamThuNhatDeXuat&gt;)&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt; </t>
+  </si>
+  <si>
+    <t>&lt;#Items.STenDuAn&gt;&lt;#AltFormat&gt;&lt;#Row Height(Autofit)&gt;</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -552,6 +552,13 @@
       <sz val="13"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -803,7 +810,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -907,60 +914,66 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -986,9 +999,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1021,55 +1031,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>361950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>361950</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Connector 1"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="723900" y="685800"/>
-          <a:ext cx="1038225" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1341,7 +1302,7 @@
   <dimension ref="A1:AC46"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:U30"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1374,106 +1335,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-    </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+    </row>
+    <row r="2" spans="1:29" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
-      <c r="E3" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
+      <c r="E3" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
     </row>
     <row r="4" spans="1:29" ht="19.5" customHeight="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="2"/>
@@ -1492,185 +1451,185 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
+      <c r="Q5" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
     </row>
     <row r="6" spans="1:29" s="7" customFormat="1" ht="42" customHeight="1">
-      <c r="A6" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="47" t="s">
+      <c r="A6" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A7" s="61"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="56"/>
+    </row>
+    <row r="8" spans="1:29" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="61"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="56"/>
+    </row>
+    <row r="9" spans="1:29" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="61"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="E9" s="59"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="59"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="56"/>
+    </row>
+    <row r="10" spans="1:29" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A10" s="61"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="60"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" s="61"/>
+      <c r="U10" s="56"/>
+    </row>
+    <row r="11" spans="1:29" s="8" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A11" s="61"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="19" t="s">
         <v>39</v>
-      </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="47" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="45"/>
-    </row>
-    <row r="8" spans="1:29" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="49"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="45"/>
-    </row>
-    <row r="9" spans="1:29" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="49"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="S9" s="51"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="45"/>
-    </row>
-    <row r="10" spans="1:29" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A10" s="49"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="S10" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="T10" s="49"/>
-      <c r="U10" s="45"/>
-    </row>
-    <row r="11" spans="1:29" s="8" customFormat="1" ht="76.5" customHeight="1">
-      <c r="A11" s="49"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="19" t="s">
-        <v>42</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
       <c r="I11" s="26" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K11" s="26" t="s">
         <v>2</v>
@@ -1687,16 +1646,16 @@
       <c r="O11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
       <c r="S11" s="26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="U11" s="46"/>
+      <c r="U11" s="57"/>
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
@@ -1704,67 +1663,67 @@
     </row>
     <row r="12" spans="1:29" s="25" customFormat="1" ht="76.5" customHeight="1">
       <c r="A12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="F12" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="G12" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="H12" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="I12" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="J12" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="K12" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="L12" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="M12" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="N12" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="O12" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="P12" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="Q12" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="O12" s="22" t="s">
+      <c r="R12" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="P12" s="22" t="s">
+      <c r="S12" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="Q12" s="21" t="s">
+      <c r="T12" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="R12" s="21" t="s">
+      <c r="U12" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="S12" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="T12" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U12" s="22" t="s">
-        <v>69</v>
       </c>
       <c r="Z12" s="24"/>
       <c r="AA12" s="24"/>
@@ -1774,59 +1733,59 @@
     <row r="13" spans="1:29" s="29" customFormat="1" ht="55.5" customHeight="1">
       <c r="A13" s="27"/>
       <c r="B13" s="28" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G13" s="31"/>
       <c r="H13" s="39" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J13" s="39" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K13" s="39" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="L13" s="39" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="M13" s="39" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="N13" s="39" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="O13" s="39" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="P13" s="39" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="36" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="R13" s="36" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="S13" s="39" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="T13" s="39" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="U13" s="28"/>
       <c r="Z13" s="30"/>
@@ -1836,67 +1795,67 @@
     </row>
     <row r="14" spans="1:29" s="33" customFormat="1" ht="59.25" customHeight="1">
       <c r="A14" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>31</v>
+        <v>101</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>121</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="P14" s="38" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="Q14" s="38" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="R14" s="38" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="S14" s="38" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="T14" s="38" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="U14" s="32" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="Z14" s="34"/>
       <c r="AA14" s="34"/>
@@ -1936,62 +1895,62 @@
       <c r="S16" s="41"/>
     </row>
     <row r="17" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A17" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
+      <c r="A17" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
     </row>
     <row r="18" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A18" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
+      <c r="A18" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" customHeight="1">
       <c r="A19" s="44"/>
@@ -2017,33 +1976,33 @@
       <c r="U19" s="41"/>
     </row>
     <row r="20" spans="1:21" ht="16.5">
-      <c r="A20" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
+      <c r="A20" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" customHeight="1">
       <c r="A21" s="41"/>
@@ -2152,56 +2111,56 @@
     </row>
     <row r="26" spans="1:21" ht="16.5">
       <c r="A26" s="43"/>
-      <c r="B26" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
+      <c r="B26" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
       <c r="H26" s="42"/>
       <c r="I26" s="42"/>
       <c r="J26" s="42"/>
       <c r="K26" s="42"/>
       <c r="L26" s="41"/>
-      <c r="M26" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
+      <c r="M26" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
       <c r="U26" s="41"/>
     </row>
     <row r="27" spans="1:21" ht="16.5">
       <c r="A27" s="43"/>
-      <c r="B27" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
+      <c r="B27" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
       <c r="J27" s="40"/>
       <c r="K27" s="40"/>
       <c r="L27" s="41"/>
-      <c r="M27" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
+      <c r="M27" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
       <c r="U27" s="41"/>
     </row>
     <row r="28" spans="1:21" ht="16.5">
@@ -2227,29 +2186,29 @@
     </row>
     <row r="29" spans="1:21" ht="16.5">
       <c r="A29" s="43"/>
-      <c r="B29" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
+      <c r="B29" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
       <c r="J29" s="40"/>
       <c r="K29" s="40"/>
       <c r="L29" s="41"/>
-      <c r="M29" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
+      <c r="M29" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
       <c r="U29" s="44"/>
     </row>
     <row r="30" spans="1:21" ht="16.5">
@@ -2457,37 +2416,7 @@
     </row>
   </sheetData>
   <dataConsolidate topLabels="1"/>
-  <mergeCells count="44">
-    <mergeCell ref="G6:P8"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="M20:U20"/>
-    <mergeCell ref="M18:U18"/>
-    <mergeCell ref="M29:T29"/>
-    <mergeCell ref="M27:T27"/>
-    <mergeCell ref="M26:T26"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="E3:Q3"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="M17:U17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="P10:P11"/>
+  <mergeCells count="43">
     <mergeCell ref="A4:U4"/>
     <mergeCell ref="Q9:Q11"/>
     <mergeCell ref="R10:R11"/>
@@ -2502,6 +2431,35 @@
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:D11"/>
+    <mergeCell ref="G6:P8"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="M17:U17"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="M20:U20"/>
+    <mergeCell ref="M18:U18"/>
+    <mergeCell ref="M29:T29"/>
+    <mergeCell ref="M27:T27"/>
+    <mergeCell ref="M26:T26"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -2510,13 +2468,9 @@
     <oddHeader>&amp;R&amp;"Times New Roman,Italic"Trang &amp;P</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="14" max="16383" man="1"/>
-  </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="21" max="1048575" man="1"/>
   </colBreaks>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4133,7 +4087,7 @@
         <v>28</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
